--- a/biology/Botanique/Ononis_natrix/Ononis_natrix.xlsx
+++ b/biology/Botanique/Ononis_natrix/Ononis_natrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ononis natrix, la Bugrane jaune, est une plante vivace de la famille des Fabacées et du genre Ononis.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre Bugrane jaune, cette plante est aussi connue sous les noms de Bugrane fétide, Bugrane puante, Bugrane gluante ou encore Coqsigrue
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur de 20 à 60 centimètres.
-Plante ligneuse à la base. Tiges à poils denses et collants[1].
-Fleurs d'un jaune intense rayé de pourpre, en grappes ramifiées[2]. Floraison de mai à août.
-Fruit : gousse pendante, longue de 1,5-2 cm[3].
+Plante ligneuse à la base. Tiges à poils denses et collants.
+Fleurs d'un jaune intense rayé de pourpre, en grappes ramifiées. Floraison de mai à août.
+Fruit : gousse pendante, longue de 1,5-2 cm.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présence certaine ou probable partout en France sauf Bretagne, Nord et Corse par manque de données[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présence certaine ou probable partout en France sauf Bretagne, Nord et Corse par manque de données.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies sèches et incultes jusqu'à 2 000 m d'altitude.
 </t>
@@ -638,9 +658,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diurétique, dépurative, utile contre les rhumatismes et certaines dermites[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diurétique, dépurative, utile contre les rhumatismes et certaines dermites.
 </t>
         </is>
       </c>
